--- a/info/motos aprilia.xlsx
+++ b/info/motos aprilia.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="1085" documentId="11_AD4DD1C4A5625FDA4777A8C7A657EE9A683EDF29" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{03D1C6CF-3DB9-4FE0-B64F-3587AFBD3375}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="APRILIA-SCOOTERS" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
     <sheet name="APRILIA-SUPERMOTARD" sheetId="5" r:id="rId5"/>
     <sheet name="APRILIA-ENDURO" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="369">
   <si>
     <t>MOTOS</t>
   </si>
@@ -1216,15 +1215,108 @@
   <si>
     <t>Doble cuna en acero</t>
   </si>
+  <si>
+    <t>DISTRIBUTION</t>
+  </si>
+  <si>
+    <t>TITLE</t>
+  </si>
+  <si>
+    <t>DESC</t>
+  </si>
+  <si>
+    <t>BRAND</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>MODEL</t>
+  </si>
+  <si>
+    <t>PRICE</t>
+  </si>
+  <si>
+    <t>CYCLE</t>
+  </si>
+  <si>
+    <t>CYLINDERS</t>
+  </si>
+  <si>
+    <t>VALVES</t>
+  </si>
+  <si>
+    <t>DISPLACEMENT</t>
+  </si>
+  <si>
+    <t>DIAMETER</t>
+  </si>
+  <si>
+    <t>MAXIMUM_POWER</t>
+  </si>
+  <si>
+    <t>PAR</t>
+  </si>
+  <si>
+    <t>FEEDING</t>
+  </si>
+  <si>
+    <t>REFRIGERATION</t>
+  </si>
+  <si>
+    <t>START</t>
+  </si>
+  <si>
+    <t>TRANSMISSION</t>
+  </si>
+  <si>
+    <t>DIMENSIONS</t>
+  </si>
+  <si>
+    <t>GEARSHIFT</t>
+  </si>
+  <si>
+    <t>DISTANCE_AXIS</t>
+  </si>
+  <si>
+    <t>SEAT_HEIGTH</t>
+  </si>
+  <si>
+    <t>DEPOSIT</t>
+  </si>
+  <si>
+    <t>WEIGHT</t>
+  </si>
+  <si>
+    <t>HOMOLOGATION</t>
+  </si>
+  <si>
+    <t>FRONT_SUSPENSION</t>
+  </si>
+  <si>
+    <t>REAR_SUSPENSION</t>
+  </si>
+  <si>
+    <t>FRONT_BRAKE</t>
+  </si>
+  <si>
+    <t>BACK_BRAKE</t>
+  </si>
+  <si>
+    <t>FRONT_TIRE</t>
+  </si>
+  <si>
+    <t>REAR_TIRE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1349,6 +1441,13 @@
       <color rgb="FF181818"/>
       <name val="Inherit"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8.5"/>
+      <color rgb="FF464C4F"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1397,7 +1496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1527,6 +1626,10 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1806,28 +1909,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.109375" customWidth="1"/>
-    <col min="2" max="3" width="31.33203125" customWidth="1"/>
-    <col min="4" max="4" width="34.5546875" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="3" width="31.28515625" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="52" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" ht="15" thickBot="1">
+      <c r="E1" s="52"/>
+    </row>
+    <row r="2" spans="1:11" s="6" customFormat="1" ht="15.75" thickBot="1">
       <c r="A2" s="5" t="s">
-        <v>19</v>
+        <v>339</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>20</v>
@@ -1838,10 +1943,11 @@
       <c r="D2" s="14" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" ht="62.4">
+      <c r="E2" s="51"/>
+    </row>
+    <row r="3" spans="1:11" s="6" customFormat="1" ht="79.5">
       <c r="A3" s="5" t="s">
-        <v>44</v>
+        <v>340</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>43</v>
@@ -1852,10 +1958,11 @@
       <c r="D3" s="15" t="s">
         <v>53</v>
       </c>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>1</v>
+        <v>341</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>2</v>
@@ -1866,6 +1973,7 @@
       <c r="D4" s="10" t="s">
         <v>2</v>
       </c>
+      <c r="E4" s="51"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
@@ -1874,7 +1982,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
-        <v>3</v>
+        <v>342</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>4</v>
@@ -1885,10 +1993,11 @@
       <c r="D5" s="10" t="s">
         <v>4</v>
       </c>
+      <c r="E5" s="51"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
-        <v>5</v>
+        <v>343</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>33</v>
@@ -1899,10 +2008,11 @@
       <c r="D6" s="10" t="s">
         <v>67</v>
       </c>
+      <c r="E6" s="51"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="3" t="s">
-        <v>7</v>
+        <v>344</v>
       </c>
       <c r="B7" s="11">
         <v>2749</v>
@@ -1913,6 +2023,7 @@
       <c r="D7" s="11">
         <v>2099</v>
       </c>
+      <c r="E7" s="51"/>
     </row>
     <row r="8" spans="1:11" s="20" customFormat="1">
       <c r="A8" s="18" t="s">
@@ -1925,10 +2036,11 @@
         <v>32</v>
       </c>
       <c r="D8" s="21"/>
+      <c r="E8" s="51"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="3" t="s">
-        <v>11</v>
+        <v>345</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>12</v>
@@ -1939,10 +2051,11 @@
       <c r="D9" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="E9" s="51"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="3" t="s">
-        <v>13</v>
+        <v>346</v>
       </c>
       <c r="B10" s="12">
         <v>1</v>
@@ -1953,266 +2066,333 @@
       <c r="D10" s="10">
         <v>1</v>
       </c>
+      <c r="E10" s="51"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="3" t="s">
-        <v>72</v>
+        <v>347</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
+      <c r="E11" s="51"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>10</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="51"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
+        <v>348</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="51"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="A14" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="51"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="51"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="51"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="51"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="51"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C19" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D19" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" s="20" customFormat="1">
-      <c r="A16" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="10" t="s">
+      <c r="E19" s="51"/>
+    </row>
+    <row r="20" spans="1:5" s="20" customFormat="1">
+      <c r="A20" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="B20" s="19"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="51"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C21" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D21" s="10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" s="20" customFormat="1">
-      <c r="A18" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="10" t="s">
+      <c r="E21" s="51"/>
+    </row>
+    <row r="22" spans="1:5" s="20" customFormat="1">
+      <c r="A22" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="51"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C23" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D23" s="10" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="10" t="s">
+      <c r="E23" s="51"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C24" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D24" s="10" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="28.8">
-      <c r="A21" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="10" t="s">
+      <c r="E24" s="51"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C25" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D25" s="10" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10" t="s">
+      <c r="E25" s="51"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="10" t="s">
+      <c r="E26" s="51"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D27" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" s="20" customFormat="1">
-      <c r="A24" s="18" t="s">
+      <c r="E27" s="51"/>
+    </row>
+    <row r="28" spans="1:5" s="20" customFormat="1">
+      <c r="A28" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-    </row>
-    <row r="25" spans="1:4" s="6" customFormat="1">
-      <c r="A25" s="5" t="s">
+      <c r="B28" s="19"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="51"/>
+    </row>
+    <row r="29" spans="1:5" s="6" customFormat="1">
+      <c r="A29" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-    </row>
-    <row r="26" spans="1:4" s="6" customFormat="1">
-      <c r="A26" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="10" t="s">
+      <c r="B29" s="22"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="51"/>
+    </row>
+    <row r="30" spans="1:5" s="6" customFormat="1">
+      <c r="A30" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C30" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D30" s="10" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" s="6" customFormat="1">
-      <c r="A27" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="10" t="s">
+      <c r="E30" s="51"/>
+    </row>
+    <row r="31" spans="1:5" s="6" customFormat="1">
+      <c r="A31" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D31" s="10" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="10" t="s">
+      <c r="E31" s="51"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C32" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D32" s="17" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="10" t="s">
+      <c r="E32" s="51"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C33" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D33" s="10" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="10" t="s">
+      <c r="E33" s="51"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B34" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C34" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D34" s="16" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="10" t="s">
+      <c r="E34" s="51"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C35" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D35" s="16" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="9"/>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="B37" s="9"/>
+      <c r="E35" s="51"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="E36" s="51"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="E37" s="51"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="E38" s="51"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="9"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="B41" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2221,21 +2401,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C3C7155-2E96-4CCA-92BA-FA1F8D6458F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.109375" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="27.44140625" customWidth="1"/>
-    <col min="4" max="4" width="53.21875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="31.33203125" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="53.28515625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2248,7 +2428,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
@@ -2268,7 +2448,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="138">
+    <row r="3" spans="1:6" ht="171.75">
       <c r="A3" s="5" t="s">
         <v>44</v>
       </c>
@@ -2368,7 +2548,7 @@
         <v>3595</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="43.2">
+    <row r="8" spans="1:6" ht="45">
       <c r="A8" s="18" t="s">
         <v>21</v>
       </c>
@@ -2545,7 +2725,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="100.8">
+    <row r="18" spans="1:6" ht="105">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
@@ -2605,7 +2785,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="28.8">
+    <row r="22" spans="1:6" ht="30">
       <c r="A22" s="4" t="s">
         <v>27</v>
       </c>
@@ -2815,21 +2995,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC8D5940-1A77-4402-933E-C95120E85427}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.109375" style="24" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" style="24" customWidth="1"/>
-    <col min="3" max="3" width="43.88671875" style="24" customWidth="1"/>
-    <col min="4" max="4" width="37.6640625" style="24" customWidth="1"/>
-    <col min="5" max="5" width="38.109375" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="11.5546875" style="24"/>
+    <col min="1" max="1" width="23.140625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="43.85546875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="37.7109375" style="24" customWidth="1"/>
+    <col min="5" max="5" width="38.140625" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="11.5703125" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -2867,7 +3047,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="250.8">
+    <row r="3" spans="1:14" ht="288">
       <c r="A3" s="40" t="s">
         <v>44</v>
       </c>
@@ -2921,7 +3101,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="17.399999999999999">
+    <row r="6" spans="1:14" ht="18">
       <c r="A6" s="33" t="s">
         <v>5</v>
       </c>
@@ -3023,7 +3203,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="28.8">
+    <row r="12" spans="1:14" ht="30">
       <c r="A12" s="33" t="s">
         <v>148</v>
       </c>
@@ -3108,7 +3288,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="81">
+    <row r="17" spans="1:5" ht="91.5">
       <c r="A17" s="33" t="s">
         <v>74</v>
       </c>
@@ -3164,7 +3344,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="28.8">
+    <row r="21" spans="1:5" ht="30">
       <c r="A21" s="40" t="s">
         <v>107</v>
       </c>
@@ -3181,7 +3361,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="86.4">
+    <row r="22" spans="1:5" ht="105">
       <c r="A22" s="33" t="s">
         <v>16</v>
       </c>
@@ -3237,7 +3417,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="28.8">
+    <row r="26" spans="1:5" ht="30">
       <c r="A26" s="33" t="s">
         <v>27</v>
       </c>
@@ -3287,7 +3467,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="100.8">
+    <row r="30" spans="1:5" ht="105">
       <c r="A30" s="40" t="s">
         <v>92</v>
       </c>
@@ -3304,7 +3484,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="100.8">
+    <row r="31" spans="1:5" ht="105">
       <c r="A31" s="40" t="s">
         <v>34</v>
       </c>
@@ -3321,7 +3501,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="115.2">
+    <row r="32" spans="1:5" ht="120">
       <c r="A32" s="40" t="s">
         <v>35</v>
       </c>
@@ -3338,7 +3518,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="115.2">
+    <row r="33" spans="1:5" ht="135">
       <c r="A33" s="42" t="s">
         <v>28</v>
       </c>
@@ -3355,7 +3535,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="115.2">
+    <row r="34" spans="1:5" ht="120">
       <c r="A34" s="42" t="s">
         <v>29</v>
       </c>
@@ -3372,7 +3552,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" ht="30">
       <c r="A35" s="33" t="s">
         <v>30</v>
       </c>
@@ -3406,7 +3586,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="57.6">
+    <row r="37" spans="1:5" ht="60">
       <c r="A37" s="33" t="s">
         <v>193</v>
       </c>
@@ -3436,19 +3616,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59BAF356-4C9F-40E2-9305-B1C63716C02C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.109375" style="24" customWidth="1"/>
-    <col min="2" max="2" width="44.21875" style="24" customWidth="1"/>
-    <col min="3" max="3" width="41.33203125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="23.88671875" style="24" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="44.28515625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="41.28515625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="24" customWidth="1"/>
     <col min="5" max="5" width="27" style="24" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3461,7 +3641,7 @@
       <c r="D1" s="45"/>
       <c r="E1" s="45"/>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" ht="28.8">
+    <row r="2" spans="1:5" s="3" customFormat="1" ht="30">
       <c r="A2" s="40" t="s">
         <v>19</v>
       </c>
@@ -3478,7 +3658,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="184.8">
+    <row r="3" spans="1:5" ht="225.75">
       <c r="A3" s="40" t="s">
         <v>44</v>
       </c>
@@ -3529,7 +3709,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="34.799999999999997">
+    <row r="6" spans="1:5" ht="36">
       <c r="A6" s="33" t="s">
         <v>5</v>
       </c>
@@ -3563,7 +3743,7 @@
         <v>16999</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="44" customFormat="1" ht="28.8">
+    <row r="8" spans="1:5" s="44" customFormat="1" ht="30">
       <c r="A8" s="43" t="s">
         <v>21</v>
       </c>
@@ -3631,7 +3811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="43.2">
+    <row r="12" spans="1:5" ht="45">
       <c r="A12" s="33" t="s">
         <v>148</v>
       </c>
@@ -3770,7 +3950,7 @@
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
     </row>
-    <row r="21" spans="1:5" ht="35.4">
+    <row r="21" spans="1:5" ht="35.25">
       <c r="A21" s="40" t="s">
         <v>107</v>
       </c>
@@ -3787,7 +3967,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="115.2">
+    <row r="22" spans="1:5" ht="135">
       <c r="A22" s="33" t="s">
         <v>16</v>
       </c>
@@ -3844,7 +4024,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="43.2">
+    <row r="26" spans="1:5" ht="45">
       <c r="A26" s="33" t="s">
         <v>27</v>
       </c>
@@ -3861,7 +4041,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="28.8">
+    <row r="27" spans="1:5" ht="30">
       <c r="A27" s="33" t="s">
         <v>91</v>
       </c>
@@ -3898,7 +4078,7 @@
       <c r="D29" s="26"/>
       <c r="E29" s="26"/>
     </row>
-    <row r="30" spans="1:5" ht="86.4">
+    <row r="30" spans="1:5" ht="105">
       <c r="A30" s="40" t="s">
         <v>92</v>
       </c>
@@ -3915,7 +4095,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="144">
+    <row r="31" spans="1:5" ht="165">
       <c r="A31" s="40" t="s">
         <v>34</v>
       </c>
@@ -3932,7 +4112,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="187.2">
+    <row r="32" spans="1:5" ht="210">
       <c r="A32" s="40" t="s">
         <v>35</v>
       </c>
@@ -3949,7 +4129,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="158.4">
+    <row r="33" spans="1:5" ht="165">
       <c r="A33" s="42" t="s">
         <v>28</v>
       </c>
@@ -3966,7 +4146,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="172.8">
+    <row r="34" spans="1:5" ht="195">
       <c r="A34" s="42" t="s">
         <v>29</v>
       </c>
@@ -3983,7 +4163,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" ht="30">
       <c r="A35" s="33" t="s">
         <v>30</v>
       </c>
@@ -4000,7 +4180,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="43.2">
+    <row r="36" spans="1:5" ht="45">
       <c r="A36" s="42" t="s">
         <v>31</v>
       </c>
@@ -4017,7 +4197,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="72">
+    <row r="37" spans="1:5" ht="75">
       <c r="A37" s="33" t="s">
         <v>193</v>
       </c>
@@ -4044,17 +4224,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F522E3-167B-4D50-A293-B92D41EE764E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.109375" style="24" customWidth="1"/>
-    <col min="2" max="2" width="35.5546875" style="24" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" style="24" customWidth="1"/>
     <col min="3" max="3" width="35" style="24" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4076,7 +4256,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="193.8">
+    <row r="3" spans="1:3" ht="236.25">
       <c r="A3" s="40" t="s">
         <v>44</v>
       </c>
@@ -4109,7 +4289,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17.399999999999999">
+    <row r="6" spans="1:3" ht="18">
       <c r="A6" s="33" t="s">
         <v>5</v>
       </c>
@@ -4131,7 +4311,7 @@
         <v>3699</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="20" customFormat="1">
+    <row r="8" spans="1:3" s="20" customFormat="1" ht="30">
       <c r="A8" s="43" t="s">
         <v>21</v>
       </c>
@@ -4261,7 +4441,7 @@
       <c r="B20" s="26"/>
       <c r="C20" s="24"/>
     </row>
-    <row r="21" spans="1:3" ht="28.8">
+    <row r="21" spans="1:3" ht="30">
       <c r="A21" s="40" t="s">
         <v>107</v>
       </c>
@@ -4272,7 +4452,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="57.6">
+    <row r="22" spans="1:3" ht="60">
       <c r="A22" s="33" t="s">
         <v>16</v>
       </c>
@@ -4306,7 +4486,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="28.8">
+    <row r="26" spans="1:3" ht="30">
       <c r="A26" s="33" t="s">
         <v>27</v>
       </c>
@@ -4337,7 +4517,7 @@
       <c r="B29" s="26"/>
       <c r="C29" s="26"/>
     </row>
-    <row r="30" spans="1:3" ht="57.6">
+    <row r="30" spans="1:3" ht="60">
       <c r="A30" s="40" t="s">
         <v>92</v>
       </c>
@@ -4348,7 +4528,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="72">
+    <row r="31" spans="1:3" ht="75">
       <c r="A31" s="40" t="s">
         <v>34</v>
       </c>
@@ -4359,7 +4539,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="43.2">
+    <row r="32" spans="1:3" ht="45">
       <c r="A32" s="40" t="s">
         <v>35</v>
       </c>
@@ -4370,7 +4550,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="43.2">
+    <row r="33" spans="1:3" ht="60">
       <c r="A33" s="42" t="s">
         <v>28</v>
       </c>
@@ -4381,7 +4561,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="43.2">
+    <row r="34" spans="1:3" ht="45">
       <c r="A34" s="42" t="s">
         <v>29</v>
       </c>
@@ -4392,7 +4572,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" ht="30">
       <c r="A35" s="33" t="s">
         <v>30</v>
       </c>
@@ -4414,7 +4594,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="28.8">
+    <row r="37" spans="1:3" ht="30">
       <c r="A37" s="33" t="s">
         <v>193</v>
       </c>
@@ -4434,16 +4614,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D1F1B9-8407-4C8A-A234-1A0502A4E39D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.109375" style="24" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" style="24" customWidth="1"/>
     <col min="2" max="2" width="36" style="24" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4460,7 +4640,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="179.4">
+    <row r="3" spans="1:2" ht="200.25">
       <c r="A3" s="40" t="s">
         <v>44</v>
       </c>
@@ -4484,7 +4664,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="17.399999999999999">
+    <row r="6" spans="1:2" ht="18">
       <c r="A6" s="33" t="s">
         <v>5</v>
       </c>
@@ -4601,7 +4781,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="43.2">
+    <row r="22" spans="1:2" ht="45">
       <c r="A22" s="33" t="s">
         <v>16</v>
       </c>
@@ -4631,7 +4811,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="28.8">
+    <row r="26" spans="1:2" ht="30">
       <c r="A26" s="33" t="s">
         <v>27</v>
       </c>
@@ -4666,7 +4846,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="28.8">
+    <row r="31" spans="1:2" ht="30">
       <c r="A31" s="40" t="s">
         <v>34</v>
       </c>
@@ -4674,7 +4854,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="43.2">
+    <row r="32" spans="1:2" ht="45">
       <c r="A32" s="40" t="s">
         <v>35</v>
       </c>
@@ -4682,7 +4862,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="28.8">
+    <row r="33" spans="1:2" ht="30">
       <c r="A33" s="42" t="s">
         <v>28</v>
       </c>
@@ -4690,7 +4870,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="28.8">
+    <row r="34" spans="1:2" ht="30">
       <c r="A34" s="42" t="s">
         <v>29</v>
       </c>
@@ -4698,7 +4878,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" ht="30">
       <c r="A35" s="33" t="s">
         <v>30</v>
       </c>
